--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/20/seed1/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.31</v>
+        <v>12.856</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.322000000000001</v>
+        <v>5.079</v>
       </c>
       <c r="C4" t="n">
-        <v>-13.384</v>
+        <v>-12.927</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.246</v>
+        <v>12.134</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.746</v>
+        <v>-12.78</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -533,10 +533,10 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>7.678</v>
+        <v>6.728</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.376</v>
+        <v>-12.61</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.31</v>
+        <v>6.709000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -567,10 +567,10 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.994</v>
+        <v>5.654999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.884</v>
+        <v>-12.597</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>14.314</v>
+        <v>13.018</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.222</v>
+        <v>12.852</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.948</v>
+        <v>13.056</v>
       </c>
     </row>
     <row r="15">
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>4.644</v>
+        <v>5.321999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.488</v>
+        <v>-12.597</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>13.072</v>
+        <v>12.657</v>
       </c>
     </row>
     <row r="19">
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.353999999999999</v>
+        <v>5.766999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>6.337999999999999</v>
+        <v>6.247</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.974</v>
+        <v>-12.467</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.4</v>
+        <v>12.827</v>
       </c>
     </row>
   </sheetData>
